--- a/V1.2/data/Messwerte V1.2.xlsx
+++ b/V1.2/data/Messwerte V1.2.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\Analytik_Protokolle\V1.2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2566AF5D-92F0-4DB1-A800-48936AF3F69E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9366059-8D11-4FC8-B439-65FF38D14331}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="2685" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="1770" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Konduktometrie" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
-    <sheet name="Dia Konduktor" sheetId="4" r:id="rId3"/>
-    <sheet name="Potentiometrie" sheetId="2" r:id="rId4"/>
-    <sheet name="Dia Potentio" sheetId="3" r:id="rId5"/>
+    <sheet name="Dia Konduktor" sheetId="4" r:id="rId2"/>
+    <sheet name="Potentiometrie" sheetId="2" r:id="rId3"/>
+    <sheet name="Dia Potentio" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Messreihen 2</t>
   </si>
@@ -101,9 +100,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>dE</t>
   </si>
   <si>
     <t>-</t>
@@ -177,13 +173,36 @@
   <si>
     <t>c1 [mg/l]</t>
   </si>
+  <si>
+    <t>conf</t>
+  </si>
+  <si>
+    <t>Messreihe 1</t>
+  </si>
+  <si>
+    <t>Messreihe 2</t>
+  </si>
+  <si>
+    <t>Messreihe 3</t>
+  </si>
+  <si>
+    <t>dE_1</t>
+  </si>
+  <si>
+    <t>dE_2</t>
+  </si>
+  <si>
+    <t>dE_3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -240,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -255,6 +274,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -326,7 +350,7 @@
             <c:numRef>
               <c:f>Konduktometrie!$A$3:$A$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -625,9 +649,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Konduktometrie!$D$3:$D$43</c:f>
+              <c:f>Konduktometrie!$C$3:$C$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -757,7 +781,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Konduktometrie!$E$3:$E$43</c:f>
+              <c:f>Konduktometrie!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -926,9 +950,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Konduktometrie!$G$3:$G$43</c:f>
+              <c:f>Konduktometrie!$E$3:$E$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1058,7 +1082,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Konduktometrie!$H$3:$H$43</c:f>
+              <c:f>Konduktometrie!$F$3:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1227,7 +1251,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1463,7 +1487,7 @@
             <c:numRef>
               <c:f>Potentiometrie!$A$3:$A$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1642,9 +1666,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Potentiometrie!$E$3:$E$23</c:f>
+              <c:f>Potentiometrie!$D$3:$D$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1714,7 +1738,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Potentiometrie!$F$3:$F$23</c:f>
+              <c:f>Potentiometrie!$E$3:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1823,9 +1847,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Potentiometrie!$I$3:$I$23</c:f>
+              <c:f>Potentiometrie!$G$3:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1895,7 +1919,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Potentiometrie!$J$3:$J$23</c:f>
+              <c:f>Potentiometrie!$H$3:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2004,7 +2028,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3294,7 +3318,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C39D110A-412D-42F9-B5D5-61B5F920B169}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3349,7 +3373,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6002055"/>
+    <xdr:ext cx="9292167" cy="6000750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -3677,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF216252-ABA1-A14F-BC57-E20FE8A85DB6}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,13 +3719,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>5</v>
@@ -3714,38 +3738,38 @@
         <v>9</v>
       </c>
       <c r="M2" s="4">
-        <f>SLOPE(E3:E17,D3:D17)</f>
+        <f>SLOPE(D3:D17,C3:C17)</f>
         <v>-5.0714285714285712</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="4">
-        <f>SLOPE(H3:H17,G3:G17)</f>
+        <f>SLOPE(F3:F17,E3:E17)</f>
         <v>-4.9571428571428573</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="11">
         <v>0</v>
       </c>
       <c r="B3">
         <v>545</v>
       </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
       <c r="D3">
+        <v>545</v>
+      </c>
+      <c r="E3" s="11">
+        <f>C3</f>
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>545</v>
-      </c>
-      <c r="G3">
-        <f>D3</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="F3">
         <v>543</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -3759,14 +3783,14 @@
         <v>10</v>
       </c>
       <c r="M3" s="4">
-        <f>INTERCEPT(E3:E17,D3:D17)</f>
+        <f>INTERCEPT(D3:D17,C3:C17)</f>
         <v>545.48333333333335</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="O3" s="4">
-        <f>INTERCEPT(H3:H17,G3:G17)</f>
+        <f>INTERCEPT(F3:F17,E3:E17)</f>
         <v>542.75</v>
       </c>
       <c r="Q3">
@@ -3775,25 +3799,25 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="11">
         <f t="shared" ref="A4:A43" si="0">A3+0.5</f>
         <v>0.5</v>
       </c>
       <c r="B4">
         <v>543</v>
       </c>
+      <c r="C4" s="11">
+        <f t="shared" ref="C4:C43" si="1">C3+0.5</f>
+        <v>0.5</v>
+      </c>
       <c r="D4">
-        <f t="shared" ref="D4:D43" si="1">D3+0.5</f>
+        <v>544</v>
+      </c>
+      <c r="E4" s="11">
+        <f>C4</f>
         <v>0.5</v>
       </c>
-      <c r="E4">
-        <v>544</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G43" si="2">D4</f>
-        <v>0.5</v>
-      </c>
-      <c r="H4">
+      <c r="F4">
         <v>541</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -3807,37 +3831,37 @@
         <v>11</v>
       </c>
       <c r="M4" s="4">
-        <f>SLOPE(E17:E43,D17:D43)</f>
+        <f>SLOPE(D17:D43,C17:C43)</f>
         <v>14.076923076923077</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O4" s="4">
-        <f>SLOPE(H17:H43,G17:G43)</f>
+        <f>SLOPE(F17:F43,E17:E43)</f>
         <v>14.129426129426129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5">
         <v>540</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>541</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
+      <c r="E5" s="11">
+        <f>C5</f>
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="F5">
         <v>538</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -3851,215 +3875,215 @@
         <v>12</v>
       </c>
       <c r="M5" s="4">
-        <f>INTERCEPT(E17:E43,D17:D43)</f>
+        <f>INTERCEPT(D17:D43,C17:C43)</f>
         <v>410.22079772079769</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O5" s="4">
-        <f>INTERCEPT(H17:H43,G17:G43)</f>
+        <f>INTERCEPT(F17:F43,E17:E43)</f>
         <v>407.99348799348803</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="B6">
         <v>537</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="11">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>538</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
+      <c r="E6" s="11">
+        <f>C6</f>
         <v>1.5</v>
       </c>
-      <c r="H6">
+      <c r="F6">
         <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B7">
         <v>534</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="D7">
         <v>535</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
+      <c r="E7" s="11">
+        <f>C7</f>
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="F7">
         <v>533</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="4">
-        <f>(K5-K3)/(K2-K4)</f>
-        <v>7.0877927614277825</v>
+        <f>(K5-K3)/(K2-K4)*1.007</f>
+        <v>7.1374073107577765</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7">
         <f>K7*$Q$3</f>
-        <v>2.512835167708992</v>
+        <v>2.5304250138829545</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" s="4">
         <f>M7/100*1000</f>
-        <v>25.12835167708992</v>
+        <v>25.304250138829545</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="B8">
         <v>532</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="11">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="E8">
+      <c r="D8">
         <v>533</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
+      <c r="E8" s="11">
+        <f>C8</f>
         <v>2.5</v>
       </c>
-      <c r="H8">
+      <c r="F8">
         <v>530</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="4">
-        <f>(M5-M3)/(M2-M4)</f>
-        <v>7.0639258196503549</v>
+        <f>(M5-M3)/(M2-M4)*1.007</f>
+        <v>7.1133733003879067</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M9" si="3">K8*$Q$3</f>
-        <v>2.5043736208406404</v>
+        <f t="shared" ref="M8:M9" si="2">K8*$Q$3</f>
+        <v>2.5219042361865247</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" ref="O8:O9" si="4">M8/100*1000</f>
-        <v>25.043736208406404</v>
+        <f t="shared" ref="O8:O9" si="3">M8/100*1000</f>
+        <v>25.219042361865245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9">
         <v>529</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="D9">
         <v>530</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
+      <c r="E9" s="11">
+        <f>C9</f>
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="F9">
         <v>528</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="4">
-        <f>(O5-O3)/(O2-O4)</f>
-        <v>7.0602795138999941</v>
+        <f>(O5-O3)/(O2-O4)*1.007</f>
+        <v>7.109701470497293</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9">
+        <f t="shared" si="2"/>
+        <v>2.5206024623354053</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="4">
         <f t="shared" si="3"/>
-        <v>2.5030808960629649</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="4"/>
-        <v>25.030808960629649</v>
+        <v>25.206024623354054</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="B10">
         <v>526</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="E10">
+      <c r="D10">
         <v>527</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
+      <c r="E10" s="11">
+        <f>C10</f>
         <v>3.5</v>
       </c>
-      <c r="H10">
+      <c r="F10">
         <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11">
         <v>524</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="D11">
         <v>525</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
+      <c r="E11" s="11">
+        <f>C11</f>
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="F11">
         <v>522</v>
       </c>
       <c r="J11" t="s">
@@ -4071,752 +4095,813 @@
       <c r="L11" t="s">
         <v>22</v>
       </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="B12">
         <v>521</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="11">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="E12">
+      <c r="D12">
         <v>522</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
+      <c r="E12" s="11">
+        <f>C12</f>
         <v>4.5</v>
       </c>
-      <c r="H12">
+      <c r="F12">
         <v>520</v>
       </c>
       <c r="J12" s="4">
         <f>AVERAGE(O7:O9)</f>
-        <v>25.067632282041995</v>
-      </c>
-      <c r="K12" s="7">
+        <v>25.243105708016284</v>
+      </c>
+      <c r="K12" s="10">
         <f>_xlfn.STDEV.S(O7:O9)</f>
-        <v>5.2980299499061662E-2</v>
+        <v>5.3351161595554003E-2</v>
       </c>
       <c r="L12">
         <f>COUNT(O7:O9)</f>
         <v>3</v>
       </c>
+      <c r="M12" s="10">
+        <f>K12*2.92/SQRT(3)</f>
+        <v>8.9942737925615204E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13">
         <v>518</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E13">
+      <c r="D13">
         <v>520</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
+      <c r="E13" s="11">
+        <f>C13</f>
         <v>5</v>
       </c>
-      <c r="H13">
+      <c r="F13">
         <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="B14">
         <v>516</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="11">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="E14">
+      <c r="D14">
         <v>517</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
+      <c r="E14" s="11">
+        <f>C14</f>
         <v>5.5</v>
       </c>
-      <c r="H14">
+      <c r="F14">
         <v>515</v>
       </c>
+      <c r="K14" s="4">
+        <f>409-544</f>
+        <v>-135</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B15">
         <v>514</v>
       </c>
-      <c r="D15">
+      <c r="C15" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E15">
+      <c r="D15">
         <v>515</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
+      <c r="E15" s="11">
+        <f>C15</f>
         <v>6</v>
       </c>
-      <c r="H15">
+      <c r="F15">
         <v>513</v>
       </c>
+      <c r="K15" s="4">
+        <f>-5.286-13.92</f>
+        <v>-19.206</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="B16">
         <v>511</v>
       </c>
-      <c r="D16">
+      <c r="C16" s="11">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="E16">
+      <c r="D16">
         <v>513</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
+      <c r="E16" s="11">
+        <f>C16</f>
         <v>6.5</v>
       </c>
-      <c r="H16">
+      <c r="F16">
         <v>511</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="K16">
+        <f>K15/K14</f>
+        <v>0.14226666666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B17" s="1">
         <v>510</v>
       </c>
-      <c r="D17" s="1">
+      <c r="C17" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1">
         <v>511</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="2"/>
+      <c r="E17" s="12">
+        <f>C17</f>
         <v>7</v>
       </c>
-      <c r="H17" s="1">
+      <c r="F17" s="1">
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="B18">
         <v>512</v>
       </c>
-      <c r="D18">
+      <c r="C18" s="11">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="E18">
+      <c r="D18">
         <v>514</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
+      <c r="E18" s="11">
+        <f>C18</f>
         <v>7.5</v>
       </c>
-      <c r="H18">
+      <c r="F18">
         <v>512</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4">
+        <f>CORREL(B3:B17,A3:A17)*-1</f>
+        <v>0.99869597571784707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B19">
         <v>518</v>
       </c>
-      <c r="D19">
+      <c r="C19" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E19">
+      <c r="D19">
         <v>520</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
+      <c r="E19" s="11">
+        <f>C19</f>
         <v>8</v>
       </c>
-      <c r="H19">
+      <c r="F19">
         <v>519</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19" s="4">
+        <f>CORREL(B17:B43,A17:A43)*1</f>
+        <v>0.99959633808707971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="B20">
         <v>526</v>
       </c>
-      <c r="D20">
+      <c r="C20" s="11">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>528</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
+      <c r="E20" s="11">
+        <f>C20</f>
         <v>8.5</v>
       </c>
-      <c r="H20">
+      <c r="F20">
         <v>526</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="J20">
+        <v>21</v>
+      </c>
+      <c r="K20" s="4">
+        <f>CORREL(D3:D17,C3:C17)*-1</f>
+        <v>0.99873150584869785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B21">
         <v>533</v>
       </c>
-      <c r="D21">
+      <c r="C21" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>535</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
+      <c r="E21" s="11">
+        <f>C21</f>
         <v>9</v>
       </c>
-      <c r="H21">
+      <c r="F21">
         <v>534</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="J21">
+        <v>22</v>
+      </c>
+      <c r="K21" s="4">
+        <f>CORREL(D17:D43,C17:C43)</f>
+        <v>0.99963812198439184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="B22">
         <v>540</v>
       </c>
-      <c r="D22">
+      <c r="C22" s="11">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="E22">
+      <c r="D22">
         <v>543</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
+      <c r="E22" s="11">
+        <f>C22</f>
         <v>9.5</v>
       </c>
-      <c r="H22">
+      <c r="F22">
         <v>541</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="J22">
+        <v>31</v>
+      </c>
+      <c r="K22" s="4">
+        <f>CORREL(F3:F17,E3:E17)*-1</f>
+        <v>0.99899246395696151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B23">
         <v>548</v>
       </c>
-      <c r="D23">
+      <c r="C23" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>551</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
+      <c r="E23" s="11">
+        <f>C23</f>
         <v>10</v>
       </c>
-      <c r="H23">
+      <c r="F23">
         <v>549</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="J23">
+        <v>32</v>
+      </c>
+      <c r="K23" s="4">
+        <f>CORREL(F17:F43,E17:E43)</f>
+        <v>0.99971679326016005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="B24">
         <v>555</v>
       </c>
-      <c r="D24">
+      <c r="C24" s="11">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="E24">
+      <c r="D24">
         <v>558</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
+      <c r="E24" s="11">
+        <f>C24</f>
         <v>10.5</v>
       </c>
-      <c r="H24">
+      <c r="F24">
         <v>556</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B25">
         <v>563</v>
       </c>
-      <c r="D25">
+      <c r="C25" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E25">
+      <c r="D25">
         <v>565</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
+      <c r="E25" s="11">
+        <f>C25</f>
         <v>11</v>
       </c>
-      <c r="H25">
+      <c r="F25">
         <v>564</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="B26">
         <v>570</v>
       </c>
-      <c r="D26">
+      <c r="C26" s="11">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="E26">
+      <c r="D26">
         <v>573</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
+      <c r="E26" s="11">
+        <f>C26</f>
         <v>11.5</v>
       </c>
-      <c r="H26">
+      <c r="F26">
         <v>571</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B27">
         <v>577</v>
       </c>
-      <c r="D27">
+      <c r="C27" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E27">
+      <c r="D27">
         <v>580</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
+      <c r="E27" s="11">
+        <f>C27</f>
         <v>12</v>
       </c>
-      <c r="H27">
+      <c r="F27">
         <v>579</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="B28">
         <v>585</v>
       </c>
-      <c r="D28">
+      <c r="C28" s="11">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="E28">
+      <c r="D28">
         <v>587</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
+      <c r="E28" s="11">
+        <f>C28</f>
         <v>12.5</v>
       </c>
-      <c r="H28">
+      <c r="F28">
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B29">
         <v>592</v>
       </c>
-      <c r="D29">
+      <c r="C29" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E29">
+      <c r="D29">
         <v>595</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
+      <c r="E29" s="11">
+        <f>C29</f>
         <v>13</v>
       </c>
-      <c r="H29">
+      <c r="F29">
         <v>593</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="B30">
         <v>599</v>
       </c>
-      <c r="D30">
+      <c r="C30" s="11">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="E30">
+      <c r="D30">
         <v>602</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
+      <c r="E30" s="11">
+        <f>C30</f>
         <v>13.5</v>
       </c>
-      <c r="H30">
+      <c r="F30">
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B31">
         <v>606</v>
       </c>
-      <c r="D31">
+      <c r="C31" s="11">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E31">
+      <c r="D31">
         <v>609</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
+      <c r="E31" s="11">
+        <f>C31</f>
         <v>14</v>
       </c>
-      <c r="H31">
+      <c r="F31">
         <v>607</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="B32">
         <v>613</v>
       </c>
-      <c r="D32">
+      <c r="C32" s="11">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="E32">
+      <c r="D32">
         <v>616</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
+      <c r="E32" s="11">
+        <f>C32</f>
         <v>14.5</v>
       </c>
-      <c r="H32">
+      <c r="F32">
         <v>614</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B33">
         <v>620</v>
       </c>
-      <c r="D33">
+      <c r="C33" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E33">
+      <c r="D33">
         <v>623</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
+      <c r="E33" s="11">
+        <f>C33</f>
         <v>15</v>
       </c>
-      <c r="H33">
+      <c r="F33">
         <v>621</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
       <c r="B34">
         <v>626</v>
       </c>
-      <c r="D34">
+      <c r="C34" s="11">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="E34">
+      <c r="D34">
         <v>630</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
+      <c r="E34" s="11">
+        <f>C34</f>
         <v>15.5</v>
       </c>
-      <c r="H34">
+      <c r="F34">
         <v>628</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B35">
         <v>633</v>
       </c>
-      <c r="D35">
+      <c r="C35" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E35">
+      <c r="D35">
         <v>636</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
+      <c r="E35" s="11">
+        <f>C35</f>
         <v>16</v>
       </c>
-      <c r="H35">
+      <c r="F35">
         <v>635</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
       <c r="B36">
         <v>640</v>
       </c>
-      <c r="D36">
+      <c r="C36" s="11">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="E36">
+      <c r="D36">
         <v>643</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
+      <c r="E36" s="11">
+        <f>C36</f>
         <v>16.5</v>
       </c>
-      <c r="H36">
+      <c r="F36">
         <v>642</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B37">
         <v>647</v>
       </c>
-      <c r="D37">
+      <c r="C37" s="11">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E37">
+      <c r="D37">
         <v>650</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
+      <c r="E37" s="11">
+        <f>C37</f>
         <v>17</v>
       </c>
-      <c r="H37">
+      <c r="F37">
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="B38">
         <v>653</v>
       </c>
-      <c r="D38">
+      <c r="C38" s="11">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="E38">
+      <c r="D38">
         <v>657</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
+      <c r="E38" s="11">
+        <f>C38</f>
         <v>17.5</v>
       </c>
-      <c r="H38">
+      <c r="F38">
         <v>655</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B39">
         <v>660</v>
       </c>
-      <c r="D39">
+      <c r="C39" s="11">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E39">
+      <c r="D39">
         <v>663</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
+      <c r="E39" s="11">
+        <f>C39</f>
         <v>18</v>
       </c>
-      <c r="H39">
+      <c r="F39">
         <v>662</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
       <c r="B40">
         <v>666</v>
       </c>
-      <c r="D40">
+      <c r="C40" s="11">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="E40">
+      <c r="D40">
         <v>670</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
+      <c r="E40" s="11">
+        <f>C40</f>
         <v>18.5</v>
       </c>
-      <c r="H40">
+      <c r="F40">
         <v>669</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B41">
         <v>673</v>
       </c>
-      <c r="D41">
+      <c r="C41" s="11">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E41">
+      <c r="D41">
         <v>676</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
+      <c r="E41" s="11">
+        <f>C41</f>
         <v>19</v>
       </c>
-      <c r="H41">
+      <c r="F41">
         <v>675</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="B42">
         <v>679</v>
       </c>
-      <c r="D42">
+      <c r="C42" s="11">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="E42">
+      <c r="D42">
         <v>683</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
+      <c r="E42" s="11">
+        <f>C42</f>
         <v>19.5</v>
       </c>
-      <c r="H42">
+      <c r="F42">
         <v>682</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B43">
         <v>685</v>
       </c>
-      <c r="D43">
+      <c r="C43" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E43">
+      <c r="D43">
         <v>689</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
+      <c r="E43" s="11">
+        <f>C43</f>
         <v>20</v>
       </c>
-      <c r="H43">
+      <c r="F43">
         <v>688</v>
       </c>
     </row>
@@ -4827,23 +4912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9B8B89-EB2D-44A0-9FD2-29349D754412}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B09F642-07AB-BE4E-BC35-56B43652603D}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="A2" sqref="A2:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4862,29 +4935,29 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2">
         <f>A10</f>
         <v>3.5</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2">
         <f>C11</f>
@@ -4892,52 +4965,52 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="11">
         <v>0</v>
       </c>
       <c r="B3">
         <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>186</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="11">
+        <f>D3</f>
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>186</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I23" si="0">E3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>186</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <f>E10</f>
+        <f>D10</f>
         <v>3.5</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3">
-        <f>G11</f>
+        <f>F11</f>
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A23" si="1">A3+0.5</f>
+      <c r="A4" s="11">
+        <f t="shared" ref="A4:A23" si="0">A3+0.5</f>
         <v>0.5</v>
       </c>
       <c r="B4">
@@ -4947,121 +5020,121 @@
         <f>B4-B3</f>
         <v>8</v>
       </c>
+      <c r="D4" s="11">
+        <f t="shared" ref="D4:D23" si="1">D3+0.5</f>
+        <v>0.5</v>
+      </c>
       <c r="E4">
-        <f t="shared" ref="E4:E23" si="2">E3+0.5</f>
+        <v>189</v>
+      </c>
+      <c r="F4">
+        <f>E4-E3</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <f>D4</f>
         <v>0.5</v>
       </c>
-      <c r="F4">
+      <c r="H4" s="3">
         <v>189</v>
       </c>
-      <c r="G4">
-        <f>F4-F3</f>
+      <c r="I4">
+        <f>H4-H3</f>
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f>D10</f>
+        <v>3.5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4">
+        <f>I11</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="3">
-        <v>189</v>
-      </c>
-      <c r="K4">
-        <f>J4-J3</f>
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4">
-        <f>E10</f>
-        <v>3.5</v>
-      </c>
-      <c r="P4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4">
-        <f>K11</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C23" si="2">B5-B4</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>187</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C23" si="3">B5-B4</f>
+      <c r="E5">
+        <v>194</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F23" si="3">E5-E4</f>
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="G5" s="11">
+        <f>D5</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>193</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I23" si="4">H5-H4</f>
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <f>G4-G3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>192</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>194</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G23" si="4">F5-F4</f>
         <v>5</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>193</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K23" si="5">J5-J4</f>
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5">
-        <f>I4-I3</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D6" s="11">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="B6">
-        <v>192</v>
-      </c>
-      <c r="C6">
+      <c r="E6">
+        <v>199</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
+      <c r="G6" s="11">
+        <f>D6</f>
         <v>1.5</v>
       </c>
-      <c r="F6">
-        <v>199</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>198</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="J6">
-        <v>198</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6">
         <f>C10</f>
@@ -5069,139 +5142,139 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>199</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D7" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>199</v>
-      </c>
-      <c r="C7">
+      <c r="E7">
+        <v>205</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="11">
+        <f>D7</f>
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>205</v>
-      </c>
-      <c r="G7">
+      <c r="H7">
+        <v>204</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>204</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" s="4">
         <f>N2+($N$5*(Q2-Q6))/(2*Q2-Q6+Q10)</f>
         <v>3.6383928571428572</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7">
-        <f>G10</f>
+        <f>F10</f>
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="B8">
+        <v>207</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="11">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="B8">
-        <v>207</v>
-      </c>
-      <c r="C8">
+      <c r="E8">
+        <v>215</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
+        <f>D8</f>
         <v>2.5</v>
       </c>
-      <c r="F8">
-        <v>215</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
+        <v>213</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="J8">
-        <v>213</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" s="4">
         <f>N3+($N$5*(Q3-Q7))/(2*Q3-Q7+Q11)</f>
         <v>3.6210526315789475</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q8">
-        <f>K10</f>
+        <f>I10</f>
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>220</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>220</v>
-      </c>
-      <c r="C9">
+      <c r="E9">
+        <v>228</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
+      <c r="G9" s="11">
+        <f>D9</f>
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>228</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
+        <v>226</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>226</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="4">
         <f>N4+($N$5*(Q4-Q8))/(2*Q4-Q8+Q12)</f>
@@ -5209,42 +5282,42 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="B10">
+        <v>245</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="B10">
-        <v>245</v>
-      </c>
-      <c r="C10">
+      <c r="E10">
+        <v>256</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G10" s="11">
+        <f>D10</f>
         <v>3.5</v>
       </c>
-      <c r="F10">
-        <v>256</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
+        <v>251</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="J10">
-        <v>251</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="N10" s="4"/>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q10">
         <f>C12</f>
@@ -5252,139 +5325,139 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>301</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D11" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B11" s="5">
-        <v>301</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="E11" s="5">
+        <v>307</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="G11" s="13">
+        <f>D11</f>
         <v>4</v>
       </c>
-      <c r="F11" s="5">
-        <v>307</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
+        <v>304</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J11" s="5">
-        <v>304</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="4">
         <f>N7*Konduktometrie!$Q$3</f>
         <v>1.2899194196428572</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <f>G12</f>
+        <f>F12</f>
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="B12">
+        <v>326</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="B12">
-        <v>326</v>
-      </c>
-      <c r="C12">
+      <c r="E12">
+        <v>328</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G12" s="11">
+        <f>D12</f>
         <v>4.5</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>328</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="J12">
-        <v>328</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N12" s="4">
         <f>N8*Konduktometrie!$Q$3</f>
         <v>1.2837717894736842</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q12">
-        <f>K12</f>
+        <f>I12</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>339</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D13" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>339</v>
-      </c>
-      <c r="C13">
+      <c r="E13">
+        <v>340</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G13" s="11">
+        <f>D13</f>
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>340</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>340</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N13" s="4">
         <f>N9*Konduktometrie!$Q$3</f>
@@ -5392,76 +5465,76 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="B14">
+        <v>347</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="11">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="B14">
-        <v>347</v>
-      </c>
-      <c r="C14">
+      <c r="E14">
+        <v>348</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E14">
+      <c r="G14" s="11">
+        <f>D14</f>
+        <v>5.5</v>
+      </c>
+      <c r="H14">
+        <v>347</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>354</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="F14">
-        <v>348</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="J14">
-        <v>347</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="E15">
         <v>354</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F15">
-        <v>354</v>
-      </c>
-      <c r="G15">
+      <c r="G15" s="11">
+        <f>D15</f>
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>353</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J15">
-        <v>353</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" s="4">
         <f>N11/50*1000</f>
@@ -5469,156 +5542,156 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="B16">
+        <v>358</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="B16">
+      <c r="E16">
         <v>358</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E16">
+      <c r="G16" s="11">
+        <f>D16</f>
+        <v>6.5</v>
+      </c>
+      <c r="H16">
+        <v>358</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" ref="N16:N17" si="5">N12/50*1000</f>
+        <v>25.675435789473685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>362</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="2"/>
-        <v>6.5</v>
-      </c>
-      <c r="F16">
-        <v>358</v>
-      </c>
-      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>362</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="14">
+        <f>D17</f>
+        <v>7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>361</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="5"/>
+        <v>25.762513333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="B18">
+        <v>366</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="E18">
+        <v>365</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="11">
+        <f>D18</f>
+        <v>7.5</v>
+      </c>
+      <c r="H18">
+        <v>365</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I16">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="J16">
-        <v>358</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="M16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" ref="N16:N17" si="6">N12/50*1000</f>
-        <v>25.675435789473685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B17" s="2">
-        <v>362</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>369</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F17" s="2">
-        <v>362</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J17" s="2">
-        <v>361</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="M17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="6"/>
-        <v>25.762513333333334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="B18">
-        <v>366</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="F18">
-        <v>365</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="J18">
-        <v>365</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="D19" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B19">
-        <v>369</v>
-      </c>
-      <c r="C19">
+      <c r="E19">
+        <v>368</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
+      <c r="G19" s="11">
+        <f>D19</f>
         <v>8</v>
       </c>
-      <c r="F19">
-        <v>368</v>
-      </c>
-      <c r="G19">
+      <c r="H19">
+        <v>367</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J19">
-        <v>367</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M19" s="6" t="s">
@@ -5631,39 +5704,42 @@
       <c r="P19" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="Q19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="B20">
+        <v>371</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="B20">
+      <c r="E20">
         <v>371</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="11">
+        <f>D20</f>
         <v>8.5</v>
       </c>
-      <c r="F20">
-        <v>371</v>
-      </c>
-      <c r="G20">
+      <c r="H20">
+        <v>370</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="J20">
-        <v>370</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M20" s="4">
@@ -5679,109 +5755,113 @@
         <f>COUNT(N15:N17)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="Q20" s="7">
+        <f>2.92/SQRT(3)*N20</f>
+        <v>0.10659413510541836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>374</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B21">
-        <v>374</v>
-      </c>
-      <c r="C21">
+      <c r="E21">
+        <v>373</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="11">
+        <f>D21</f>
         <v>9</v>
       </c>
-      <c r="F21">
-        <v>373</v>
-      </c>
-      <c r="G21">
+      <c r="H21">
+        <v>372</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I21">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J21">
-        <v>372</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <v>9.5</v>
+      </c>
+      <c r="B22">
+        <v>375</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="B22">
+      <c r="E22">
         <v>375</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="11">
+        <f>D22</f>
         <v>9.5</v>
       </c>
-      <c r="F22">
-        <v>375</v>
-      </c>
-      <c r="G22">
+      <c r="H22">
+        <v>374</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I22">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="J22">
-        <v>374</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>377</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="D23" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="E23">
         <v>377</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
+      <c r="G23" s="11">
+        <f>D23</f>
         <v>10</v>
       </c>
-      <c r="F23">
-        <v>377</v>
-      </c>
-      <c r="G23">
+      <c r="H23">
+        <v>376</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>376</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>

--- a/V1.2/data/Messwerte V1.2.xlsx
+++ b/V1.2/data/Messwerte V1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\Analytik_Protokolle\V1.2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9366059-8D11-4FC8-B439-65FF38D14331}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0830B1DD-64F0-4C89-9FA9-8A71D946DCBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1770" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Konduktometrie" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Messreihen 2</t>
   </si>
@@ -194,6 +194,9 @@
   <si>
     <t>dE_3</t>
   </si>
+  <si>
+    <t>temp</t>
+  </si>
 </sst>
 </file>
 
@@ -268,17 +271,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3318,7 +3321,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C39D110A-412D-42F9-B5D5-61B5F920B169}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="46" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3340,7 +3343,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6002055"/>
+    <xdr:ext cx="9302750" cy="6016625"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -3701,14 +3704,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF216252-ABA1-A14F-BC57-E20FE8A85DB6}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3753,20 +3757,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>0</v>
       </c>
       <c r="B3">
         <v>545</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3">
         <v>545</v>
       </c>
-      <c r="E3" s="11">
-        <f>C3</f>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E43" si="0">C3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -3799,22 +3803,22 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <f t="shared" ref="A4:A43" si="0">A3+0.5</f>
+      <c r="A4" s="9">
+        <f t="shared" ref="A4:A43" si="1">A3+0.5</f>
         <v>0.5</v>
       </c>
       <c r="B4">
         <v>543</v>
       </c>
-      <c r="C4" s="11">
-        <f t="shared" ref="C4:C43" si="1">C3+0.5</f>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:C43" si="2">C3+0.5</f>
         <v>0.5</v>
       </c>
       <c r="D4">
         <v>544</v>
       </c>
-      <c r="E4" s="11">
-        <f>C4</f>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F4">
@@ -3843,22 +3847,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <f t="shared" si="0"/>
+      <c r="A5" s="9">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B5">
         <v>540</v>
       </c>
-      <c r="C5" s="11">
-        <f t="shared" si="1"/>
+      <c r="C5" s="9">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D5">
         <v>541</v>
       </c>
-      <c r="E5" s="11">
-        <f>C5</f>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
@@ -3887,45 +3891,45 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>537</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>538</v>
+      </c>
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="B6">
-        <v>537</v>
-      </c>
-      <c r="C6" s="11">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="D6">
-        <v>538</v>
-      </c>
-      <c r="E6" s="11">
-        <f>C6</f>
-        <v>1.5</v>
-      </c>
       <c r="F6">
         <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <f t="shared" si="0"/>
+      <c r="A7" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B7">
         <v>534</v>
       </c>
-      <c r="C7" s="11">
-        <f t="shared" si="1"/>
+      <c r="C7" s="9">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D7">
         <v>535</v>
       </c>
-      <c r="E7" s="11">
-        <f>C7</f>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F7">
@@ -3954,22 +3958,22 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <f t="shared" si="0"/>
+      <c r="A8" s="9">
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="B8">
         <v>532</v>
       </c>
-      <c r="C8" s="11">
-        <f t="shared" si="1"/>
+      <c r="C8" s="9">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="D8">
         <v>533</v>
       </c>
-      <c r="E8" s="11">
-        <f>C8</f>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="F8">
@@ -3986,34 +3990,34 @@
         <v>41</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M9" si="2">K8*$Q$3</f>
+        <f t="shared" ref="M8:M9" si="3">K8*$Q$3</f>
         <v>2.5219042361865247</v>
       </c>
       <c r="N8" t="s">
         <v>44</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" ref="O8:O9" si="3">M8/100*1000</f>
+        <f t="shared" ref="O8:O9" si="4">M8/100*1000</f>
         <v>25.219042361865245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <f t="shared" si="0"/>
+      <c r="A9" s="9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B9">
         <v>529</v>
       </c>
-      <c r="C9" s="11">
-        <f t="shared" si="1"/>
+      <c r="C9" s="9">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D9">
         <v>530</v>
       </c>
-      <c r="E9" s="11">
-        <f>C9</f>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F9">
@@ -4030,59 +4034,63 @@
         <v>42</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5206024623354053</v>
       </c>
       <c r="N9" t="s">
         <v>45</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.206024623354054</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="B10">
+        <v>526</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="D10">
+        <v>527</v>
+      </c>
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="B10">
-        <v>526</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="D10">
-        <v>527</v>
-      </c>
-      <c r="E10" s="11">
-        <f>C10</f>
-        <v>3.5</v>
-      </c>
       <c r="F10">
         <v>525</v>
       </c>
+      <c r="K10" s="4">
+        <f>AVERAGE(K7:K9)</f>
+        <v>7.1201606938809912</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>524</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>525</v>
+      </c>
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>524</v>
-      </c>
-      <c r="C11" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>525</v>
-      </c>
-      <c r="E11" s="11">
-        <f>C11</f>
-        <v>4</v>
-      </c>
       <c r="F11">
         <v>522</v>
       </c>
@@ -4100,22 +4108,22 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <f t="shared" si="0"/>
+      <c r="A12" s="9">
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="B12">
         <v>521</v>
       </c>
-      <c r="C12" s="11">
-        <f t="shared" si="1"/>
+      <c r="C12" s="9">
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="D12">
         <v>522</v>
       </c>
-      <c r="E12" s="11">
-        <f>C12</f>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="F12">
@@ -4125,7 +4133,7 @@
         <f>AVERAGE(O7:O9)</f>
         <v>25.243105708016284</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="8">
         <f>_xlfn.STDEV.S(O7:O9)</f>
         <v>5.3351161595554003E-2</v>
       </c>
@@ -4133,51 +4141,51 @@
         <f>COUNT(O7:O9)</f>
         <v>3</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="8">
         <f>K12*2.92/SQRT(3)</f>
         <v>8.9942737925615204E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>518</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>520</v>
+      </c>
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>518</v>
-      </c>
-      <c r="C13" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>520</v>
-      </c>
-      <c r="E13" s="11">
-        <f>C13</f>
-        <v>5</v>
-      </c>
       <c r="F13">
         <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <f t="shared" si="0"/>
+      <c r="A14" s="9">
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="B14">
         <v>516</v>
       </c>
-      <c r="C14" s="11">
-        <f t="shared" si="1"/>
+      <c r="C14" s="9">
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="D14">
         <v>517</v>
       </c>
-      <c r="E14" s="11">
-        <f>C14</f>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="F14">
@@ -4187,24 +4195,28 @@
         <f>409-544</f>
         <v>-135</v>
       </c>
+      <c r="M14" s="8">
+        <f>(J12-250)/K12*SQRT(L12)</f>
+        <v>-7296.7550962853729</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <f t="shared" si="0"/>
+      <c r="A15" s="9">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B15">
         <v>514</v>
       </c>
-      <c r="C15" s="11">
-        <f t="shared" si="1"/>
+      <c r="C15" s="9">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D15">
         <v>515</v>
       </c>
-      <c r="E15" s="11">
-        <f>C15</f>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F15">
@@ -4216,22 +4228,22 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <f t="shared" si="0"/>
+      <c r="A16" s="9">
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="B16">
         <v>511</v>
       </c>
-      <c r="C16" s="11">
-        <f t="shared" si="1"/>
+      <c r="C16" s="9">
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="D16">
         <v>513</v>
       </c>
-      <c r="E16" s="11">
-        <f>C16</f>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="F16">
@@ -4243,45 +4255,45 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>510</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>511</v>
+      </c>
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="1">
-        <v>510</v>
-      </c>
-      <c r="C17" s="12">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D17" s="1">
-        <v>511</v>
-      </c>
-      <c r="E17" s="12">
-        <f>C17</f>
-        <v>7</v>
-      </c>
       <c r="F17" s="1">
         <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <f t="shared" si="0"/>
+      <c r="A18" s="9">
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="B18">
         <v>512</v>
       </c>
-      <c r="C18" s="11">
-        <f t="shared" si="1"/>
+      <c r="C18" s="9">
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="D18">
         <v>514</v>
       </c>
-      <c r="E18" s="11">
-        <f>C18</f>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="F18">
@@ -4296,22 +4308,22 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <f t="shared" si="0"/>
+      <c r="A19" s="9">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B19">
         <v>518</v>
       </c>
-      <c r="C19" s="11">
-        <f t="shared" si="1"/>
+      <c r="C19" s="9">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D19">
         <v>520</v>
       </c>
-      <c r="E19" s="11">
-        <f>C19</f>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F19">
@@ -4326,22 +4338,22 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <f t="shared" si="0"/>
+      <c r="A20" s="9">
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="B20">
         <v>526</v>
       </c>
-      <c r="C20" s="11">
-        <f t="shared" si="1"/>
+      <c r="C20" s="9">
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="D20">
         <v>528</v>
       </c>
-      <c r="E20" s="11">
-        <f>C20</f>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="F20">
@@ -4356,22 +4368,22 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <f t="shared" si="0"/>
+      <c r="A21" s="9">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B21">
         <v>533</v>
       </c>
-      <c r="C21" s="11">
-        <f t="shared" si="1"/>
+      <c r="C21" s="9">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D21">
         <v>535</v>
       </c>
-      <c r="E21" s="11">
-        <f>C21</f>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F21">
@@ -4386,22 +4398,22 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <f t="shared" si="0"/>
+      <c r="A22" s="9">
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="B22">
         <v>540</v>
       </c>
-      <c r="C22" s="11">
-        <f t="shared" si="1"/>
+      <c r="C22" s="9">
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="D22">
         <v>543</v>
       </c>
-      <c r="E22" s="11">
-        <f>C22</f>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="F22">
@@ -4416,22 +4428,22 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <f t="shared" si="0"/>
+      <c r="A23" s="9">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B23">
         <v>548</v>
       </c>
-      <c r="C23" s="11">
-        <f t="shared" si="1"/>
+      <c r="C23" s="9">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D23">
         <v>551</v>
       </c>
-      <c r="E23" s="11">
-        <f>C23</f>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F23">
@@ -4446,459 +4458,459 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="B24">
+        <v>555</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="D24">
+        <v>558</v>
+      </c>
+      <c r="E24" s="9">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="B24">
-        <v>555</v>
-      </c>
-      <c r="C24" s="11">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="D24">
-        <v>558</v>
-      </c>
-      <c r="E24" s="11">
-        <f>C24</f>
-        <v>10.5</v>
-      </c>
       <c r="F24">
         <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>563</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>565</v>
+      </c>
+      <c r="E25" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B25">
-        <v>563</v>
-      </c>
-      <c r="C25" s="11">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>565</v>
-      </c>
-      <c r="E25" s="11">
-        <f>C25</f>
-        <v>11</v>
-      </c>
       <c r="F25">
         <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="9">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="B26">
+        <v>570</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="D26">
+        <v>573</v>
+      </c>
+      <c r="E26" s="9">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="B26">
-        <v>570</v>
-      </c>
-      <c r="C26" s="11">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
-      </c>
-      <c r="D26">
-        <v>573</v>
-      </c>
-      <c r="E26" s="11">
-        <f>C26</f>
-        <v>11.5</v>
-      </c>
       <c r="F26">
         <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>577</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>580</v>
+      </c>
+      <c r="E27" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B27">
-        <v>577</v>
-      </c>
-      <c r="C27" s="11">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>580</v>
-      </c>
-      <c r="E27" s="11">
-        <f>C27</f>
-        <v>12</v>
-      </c>
       <c r="F27">
         <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="9">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="B28">
+        <v>585</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="D28">
+        <v>587</v>
+      </c>
+      <c r="E28" s="9">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="B28">
-        <v>585</v>
-      </c>
-      <c r="C28" s="11">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="D28">
-        <v>587</v>
-      </c>
-      <c r="E28" s="11">
-        <f>C28</f>
-        <v>12.5</v>
-      </c>
       <c r="F28">
         <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>592</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>595</v>
+      </c>
+      <c r="E29" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B29">
-        <v>592</v>
-      </c>
-      <c r="C29" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D29">
-        <v>595</v>
-      </c>
-      <c r="E29" s="11">
-        <f>C29</f>
-        <v>13</v>
-      </c>
       <c r="F29">
         <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="9">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="B30">
+        <v>599</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="D30">
+        <v>602</v>
+      </c>
+      <c r="E30" s="9">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="B30">
-        <v>599</v>
-      </c>
-      <c r="C30" s="11">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="D30">
-        <v>602</v>
-      </c>
-      <c r="E30" s="11">
-        <f>C30</f>
-        <v>13.5</v>
-      </c>
       <c r="F30">
         <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>606</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>609</v>
+      </c>
+      <c r="E31" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B31">
-        <v>606</v>
-      </c>
-      <c r="C31" s="11">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>609</v>
-      </c>
-      <c r="E31" s="11">
-        <f>C31</f>
-        <v>14</v>
-      </c>
       <c r="F31">
         <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="9">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="B32">
+        <v>613</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="D32">
+        <v>616</v>
+      </c>
+      <c r="E32" s="9">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="B32">
-        <v>613</v>
-      </c>
-      <c r="C32" s="11">
-        <f t="shared" si="1"/>
-        <v>14.5</v>
-      </c>
-      <c r="D32">
-        <v>616</v>
-      </c>
-      <c r="E32" s="11">
-        <f>C32</f>
-        <v>14.5</v>
-      </c>
       <c r="F32">
         <v>614</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>620</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>623</v>
+      </c>
+      <c r="E33" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B33">
-        <v>620</v>
-      </c>
-      <c r="C33" s="11">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D33">
-        <v>623</v>
-      </c>
-      <c r="E33" s="11">
-        <f>C33</f>
-        <v>15</v>
-      </c>
       <c r="F33">
         <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="9">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="B34">
+        <v>626</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="D34">
+        <v>630</v>
+      </c>
+      <c r="E34" s="9">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="B34">
-        <v>626</v>
-      </c>
-      <c r="C34" s="11">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-      <c r="D34">
-        <v>630</v>
-      </c>
-      <c r="E34" s="11">
-        <f>C34</f>
-        <v>15.5</v>
-      </c>
       <c r="F34">
         <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>633</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>636</v>
+      </c>
+      <c r="E35" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B35">
-        <v>633</v>
-      </c>
-      <c r="C35" s="11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D35">
-        <v>636</v>
-      </c>
-      <c r="E35" s="11">
-        <f>C35</f>
-        <v>16</v>
-      </c>
       <c r="F35">
         <v>635</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="9">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="B36">
+        <v>640</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="D36">
+        <v>643</v>
+      </c>
+      <c r="E36" s="9">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-      <c r="B36">
-        <v>640</v>
-      </c>
-      <c r="C36" s="11">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-      <c r="D36">
-        <v>643</v>
-      </c>
-      <c r="E36" s="11">
-        <f>C36</f>
-        <v>16.5</v>
-      </c>
       <c r="F36">
         <v>642</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>647</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>650</v>
+      </c>
+      <c r="E37" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B37">
-        <v>647</v>
-      </c>
-      <c r="C37" s="11">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D37">
-        <v>650</v>
-      </c>
-      <c r="E37" s="11">
-        <f>C37</f>
-        <v>17</v>
-      </c>
       <c r="F37">
         <v>649</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="9">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="B38">
+        <v>653</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="D38">
+        <v>657</v>
+      </c>
+      <c r="E38" s="9">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="B38">
-        <v>653</v>
-      </c>
-      <c r="C38" s="11">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
-      </c>
-      <c r="D38">
-        <v>657</v>
-      </c>
-      <c r="E38" s="11">
-        <f>C38</f>
-        <v>17.5</v>
-      </c>
       <c r="F38">
         <v>655</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>660</v>
+      </c>
+      <c r="C39" s="9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>663</v>
+      </c>
+      <c r="E39" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B39">
-        <v>660</v>
-      </c>
-      <c r="C39" s="11">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D39">
-        <v>663</v>
-      </c>
-      <c r="E39" s="11">
-        <f>C39</f>
-        <v>18</v>
-      </c>
       <c r="F39">
         <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="A40" s="9">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="B40">
+        <v>666</v>
+      </c>
+      <c r="C40" s="9">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+      <c r="D40">
+        <v>670</v>
+      </c>
+      <c r="E40" s="9">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-      <c r="B40">
-        <v>666</v>
-      </c>
-      <c r="C40" s="11">
-        <f t="shared" si="1"/>
-        <v>18.5</v>
-      </c>
-      <c r="D40">
-        <v>670</v>
-      </c>
-      <c r="E40" s="11">
-        <f>C40</f>
-        <v>18.5</v>
-      </c>
       <c r="F40">
         <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="9">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>673</v>
+      </c>
+      <c r="C41" s="9">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>676</v>
+      </c>
+      <c r="E41" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B41">
-        <v>673</v>
-      </c>
-      <c r="C41" s="11">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D41">
-        <v>676</v>
-      </c>
-      <c r="E41" s="11">
-        <f>C41</f>
-        <v>19</v>
-      </c>
       <c r="F41">
         <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="A42" s="9">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="B42">
+        <v>679</v>
+      </c>
+      <c r="C42" s="9">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+      <c r="D42">
+        <v>683</v>
+      </c>
+      <c r="E42" s="9">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-      <c r="B42">
-        <v>679</v>
-      </c>
-      <c r="C42" s="11">
-        <f t="shared" si="1"/>
-        <v>19.5</v>
-      </c>
-      <c r="D42">
-        <v>683</v>
-      </c>
-      <c r="E42" s="11">
-        <f>C42</f>
-        <v>19.5</v>
-      </c>
       <c r="F42">
         <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <f t="shared" si="0"/>
+      <c r="A43" s="9">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B43">
         <v>685</v>
       </c>
-      <c r="C43" s="11">
-        <f t="shared" si="1"/>
+      <c r="C43" s="9">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D43">
         <v>689</v>
       </c>
-      <c r="E43" s="11">
-        <f>C43</f>
+      <c r="E43" s="9">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F43">
@@ -4913,16 +4925,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B09F642-07AB-BE4E-BC35-56B43652603D}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I23"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4965,7 +4978,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>0</v>
       </c>
       <c r="B3">
@@ -4974,7 +4987,7 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3">
@@ -4983,8 +4996,8 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="11">
-        <f>D3</f>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G23" si="0">D3</f>
         <v>0</v>
       </c>
       <c r="H3">
@@ -5009,8 +5022,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <f t="shared" ref="A4:A23" si="0">A3+0.5</f>
+      <c r="A4" s="9">
+        <f t="shared" ref="A4:A23" si="1">A3+0.5</f>
         <v>0.5</v>
       </c>
       <c r="B4">
@@ -5020,8 +5033,8 @@
         <f>B4-B3</f>
         <v>8</v>
       </c>
-      <c r="D4" s="11">
-        <f t="shared" ref="D4:D23" si="1">D3+0.5</f>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D23" si="2">D3+0.5</f>
         <v>0.5</v>
       </c>
       <c r="E4">
@@ -5031,8 +5044,8 @@
         <f>E4-E3</f>
         <v>3</v>
       </c>
-      <c r="G4" s="11">
-        <f>D4</f>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H4" s="3">
@@ -5058,37 +5071,37 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C23" si="3">B5-B4</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>194</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F23" si="4">E5-E4</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>187</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C23" si="2">B5-B4</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>194</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F23" si="3">E5-E4</f>
-        <v>5</v>
-      </c>
-      <c r="G5" s="11">
-        <f>D5</f>
-        <v>1</v>
-      </c>
       <c r="H5">
         <v>193</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I23" si="4">H5-H4</f>
+        <f t="shared" ref="I5:I23" si="5">H5-H4</f>
         <v>4</v>
       </c>
       <c r="M5" t="s">
@@ -5100,37 +5113,37 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>192</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>199</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="B6">
-        <v>192</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D6" s="11">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="E6">
-        <v>199</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G6" s="11">
-        <f>D6</f>
-        <v>1.5</v>
-      </c>
       <c r="H6">
         <v>198</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P6" t="s">
@@ -5142,45 +5155,45 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>199</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>205</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>199</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>205</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G7" s="11">
-        <f>D7</f>
-        <v>2</v>
-      </c>
       <c r="H7">
         <v>204</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
       </c>
       <c r="N7" s="4">
-        <f>N2+($N$5*(Q2-Q6))/(2*Q2-Q6+Q10)</f>
-        <v>3.6383928571428572</v>
+        <f>(N2+($N$5*(Q2-Q6))/(2*Q2-Q6+Q10))*1.007</f>
+        <v>3.6638616071428567</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
@@ -5191,45 +5204,45 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="B8">
+        <v>207</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>215</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="B8">
-        <v>207</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="E8">
-        <v>215</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="G8" s="11">
-        <f>D8</f>
-        <v>2.5</v>
-      </c>
       <c r="H8">
         <v>213</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="M8" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="4">
-        <f>N3+($N$5*(Q3-Q7))/(2*Q3-Q7+Q11)</f>
-        <v>3.6210526315789475</v>
+        <f t="shared" ref="N8:N9" si="6">(N3+($N$5*(Q3-Q7))/(2*Q3-Q7+Q11))*1.007</f>
+        <v>3.6463999999999999</v>
       </c>
       <c r="P8" t="s">
         <v>33</v>
@@ -5240,79 +5253,83 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>220</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>228</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>220</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>228</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="G9" s="11">
-        <f>D9</f>
-        <v>3</v>
-      </c>
       <c r="H9">
         <v>226</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="M9" t="s">
         <v>39</v>
       </c>
       <c r="N9" s="4">
-        <f>N4+($N$5*(Q4-Q8))/(2*Q4-Q8+Q12)</f>
-        <v>3.6333333333333333</v>
+        <f t="shared" si="6"/>
+        <v>3.6587666666666663</v>
+      </c>
+      <c r="O9" s="4">
+        <f>AVERAGE(N7:N9)</f>
+        <v>3.6563427579365073</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="B10">
+        <v>245</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="E10">
+        <v>256</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="B10">
-        <v>245</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="E10">
-        <v>256</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="G10" s="11">
-        <f>D10</f>
-        <v>3.5</v>
-      </c>
       <c r="H10">
         <v>251</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="N10" s="4"/>
@@ -5325,37 +5342,37 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>301</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>307</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="5">
-        <v>301</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E11" s="5">
-        <v>307</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="G11" s="13">
-        <f>D11</f>
-        <v>4</v>
-      </c>
       <c r="H11" s="5">
         <v>304</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="M11" t="s">
@@ -5363,7 +5380,7 @@
       </c>
       <c r="N11" s="4">
         <f>N7*Konduktometrie!$Q$3</f>
-        <v>1.2899194196428572</v>
+        <v>1.298948855580357</v>
       </c>
       <c r="P11" t="s">
         <v>35</v>
@@ -5374,37 +5391,37 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="B12">
+        <v>326</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="E12">
+        <v>328</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="B12">
-        <v>326</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="E12">
-        <v>328</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="G12" s="11">
-        <f>D12</f>
-        <v>4.5</v>
-      </c>
       <c r="H12">
         <v>328</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="M12" t="s">
@@ -5412,7 +5429,7 @@
       </c>
       <c r="N12" s="4">
         <f>N8*Konduktometrie!$Q$3</f>
-        <v>1.2837717894736842</v>
+        <v>1.292758192</v>
       </c>
       <c r="P12" t="s">
         <v>36</v>
@@ -5423,37 +5440,37 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>339</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>340</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>339</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>340</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="G13" s="11">
-        <f>D13</f>
-        <v>5</v>
-      </c>
       <c r="H13">
         <v>340</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M13" t="s">
@@ -5461,407 +5478,414 @@
       </c>
       <c r="N13" s="4">
         <f>N9*Konduktometrie!$Q$3</f>
-        <v>1.2881256666666667</v>
+        <v>1.2971425463333333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="B14">
+        <v>347</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="E14">
+        <v>348</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="B14">
+      <c r="H14">
         <v>347</v>
       </c>
-      <c r="C14">
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>354</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>354</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>353</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="4">
+        <f>N11/50*1000</f>
+        <v>25.97897711160714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="B16">
+        <v>358</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="E16">
+        <v>358</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="H16">
+        <v>358</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" ref="N16:N17" si="7">N12/50*1000</f>
+        <v>25.855163839999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>362</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>362</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>361</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="7"/>
+        <v>25.942850926666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="B18">
+        <v>366</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="E18">
+        <v>365</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="H18">
+        <v>365</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>369</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D19" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D14" s="11">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="E14">
-        <v>348</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G14" s="11">
-        <f>D14</f>
-        <v>5.5</v>
-      </c>
-      <c r="H14">
-        <v>347</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>354</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D15" s="11">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>354</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G15" s="11">
-        <f>D15</f>
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>353</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="4">
-        <f>N11/50*1000</f>
-        <v>25.798388392857145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="B16">
-        <v>358</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D16" s="11">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="E16">
-        <v>358</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G16" s="11">
-        <f>D16</f>
-        <v>6.5</v>
-      </c>
-      <c r="H16">
-        <v>358</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" ref="N16:N17" si="5">N12/50*1000</f>
-        <v>25.675435789473685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B17" s="2">
-        <v>362</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E17" s="2">
-        <v>362</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G17" s="14">
-        <f>D17</f>
-        <v>7</v>
-      </c>
-      <c r="H17" s="2">
-        <v>361</v>
-      </c>
-      <c r="I17">
+      <c r="E19">
+        <v>368</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="5"/>
-        <v>25.762513333333334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="B18">
-        <v>366</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D18" s="11">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="E18">
-        <v>365</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G18" s="11">
-        <f>D18</f>
-        <v>7.5</v>
-      </c>
-      <c r="H18">
-        <v>365</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="G19" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B19">
-        <v>369</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>368</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G19" s="11">
-        <f>D19</f>
-        <v>8</v>
-      </c>
       <c r="H19">
         <v>367</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="8"/>
+      <c r="O19" s="13"/>
       <c r="P19" s="6" t="s">
         <v>22</v>
       </c>
       <c r="Q19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="R19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="B20">
+        <v>371</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="E20">
+        <v>371</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="B20">
-        <v>371</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="E20">
-        <v>371</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G20" s="11">
-        <f>D20</f>
-        <v>8.5</v>
-      </c>
       <c r="H20">
         <v>370</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M20" s="4">
         <f>AVERAGE(N15:N17)</f>
-        <v>25.745445838554719</v>
-      </c>
-      <c r="N20" s="9">
+        <v>25.9256639594246</v>
+      </c>
+      <c r="N20" s="14">
         <f>_xlfn.STDEV.S(N15:N17)</f>
-        <v>6.3228238969673251E-2</v>
-      </c>
-      <c r="O20" s="9"/>
+        <v>6.3670836642459094E-2</v>
+      </c>
+      <c r="O20" s="14"/>
       <c r="P20">
         <f>COUNT(N15:N17)</f>
         <v>3</v>
       </c>
       <c r="Q20" s="7">
         <f>2.92/SQRT(3)*N20</f>
-        <v>0.10659413510541836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+        <v>0.10734029405115314</v>
+      </c>
+      <c r="R20" s="8">
+        <f>(M20-250)/N20*SQRT(P20)</f>
+        <v>-6095.5400487972765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>374</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>373</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="H21">
+        <v>372</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="B22">
+        <v>375</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="E22">
+        <v>375</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="H22">
         <v>374</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>373</v>
-      </c>
-      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>377</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G21" s="11">
-        <f>D21</f>
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <v>372</v>
-      </c>
-      <c r="I21">
+      <c r="D23" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>377</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="B22">
-        <v>375</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D22" s="11">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
-      </c>
-      <c r="E22">
-        <v>375</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G22" s="11">
-        <f>D22</f>
-        <v>9.5</v>
-      </c>
-      <c r="H22">
-        <v>374</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="G23" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23">
-        <v>377</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D23" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>377</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G23" s="11">
-        <f>D23</f>
-        <v>10</v>
-      </c>
       <c r="H23">
         <v>376</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>

--- a/V1.2/data/Messwerte V1.2.xlsx
+++ b/V1.2/data/Messwerte V1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\Analytik_Protokolle\V1.2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0830B1DD-64F0-4C89-9FA9-8A71D946DCBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF893247-73B9-4E58-B9B0-A3135271ABDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -270,7 +270,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -279,7 +278,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3704,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF216252-ABA1-A14F-BC57-E20FE8A85DB6}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3757,19 +3756,19 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
       <c r="B3">
         <v>545</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3">
         <v>545</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f t="shared" ref="E3:E43" si="0">C3</f>
         <v>0</v>
       </c>
@@ -3803,21 +3802,21 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <f t="shared" ref="A4:A43" si="1">A3+0.5</f>
         <v>0.5</v>
       </c>
       <c r="B4">
         <v>543</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <f t="shared" ref="C4:C43" si="2">C3+0.5</f>
         <v>0.5</v>
       </c>
       <c r="D4">
         <v>544</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -3847,21 +3846,21 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B5">
         <v>540</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D5">
         <v>541</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3891,21 +3890,21 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="B6">
         <v>537</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="D6">
         <v>538</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -3914,21 +3913,21 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B7">
         <v>534</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D7">
         <v>535</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3958,21 +3957,21 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="B8">
         <v>532</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="D8">
         <v>533</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -4002,21 +4001,21 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B9">
         <v>529</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D9">
         <v>530</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4046,21 +4045,21 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="B10">
         <v>526</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="D10">
         <v>527</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
@@ -4073,21 +4072,21 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B11">
         <v>524</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D11">
         <v>525</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4108,21 +4107,21 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="B12">
         <v>521</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="D12">
         <v>522</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -4133,7 +4132,7 @@
         <f>AVERAGE(O7:O9)</f>
         <v>25.243105708016284</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f>_xlfn.STDEV.S(O7:O9)</f>
         <v>5.3351161595554003E-2</v>
       </c>
@@ -4141,27 +4140,27 @@
         <f>COUNT(O7:O9)</f>
         <v>3</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="4">
         <f>K12*2.92/SQRT(3)</f>
         <v>8.9942737925615204E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B13">
         <v>518</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D13">
         <v>520</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4170,21 +4169,21 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="B14">
         <v>516</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="D14">
         <v>517</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
@@ -4195,27 +4194,27 @@
         <f>409-544</f>
         <v>-135</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f>(J12-250)/K12*SQRT(L12)</f>
         <v>-7296.7550962853729</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B15">
         <v>514</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D15">
         <v>515</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4228,21 +4227,21 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="B16">
         <v>511</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="D16">
         <v>513</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
@@ -4255,21 +4254,21 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B17" s="1">
         <v>510</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D17" s="1">
         <v>511</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -4278,21 +4277,21 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="B18">
         <v>512</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="D18">
         <v>514</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -4308,21 +4307,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B19">
         <v>518</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D19">
         <v>520</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -4338,21 +4337,21 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="B20">
         <v>526</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="D20">
         <v>528</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
@@ -4368,21 +4367,21 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B21">
         <v>533</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D21">
         <v>535</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -4398,21 +4397,21 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="B22">
         <v>540</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="D22">
         <v>543</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -4428,21 +4427,21 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B23">
         <v>548</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D23">
         <v>551</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4458,21 +4457,21 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="B24">
         <v>555</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="D24">
         <v>558</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
@@ -4481,21 +4480,21 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B25">
         <v>563</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D25">
         <v>565</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -4504,21 +4503,21 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="B26">
         <v>570</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
       <c r="D26">
         <v>573</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
@@ -4527,21 +4526,21 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B27">
         <v>577</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D27">
         <v>580</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -4550,21 +4549,21 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="B28">
         <v>585</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="D28">
         <v>587</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
@@ -4573,21 +4572,21 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B29">
         <v>592</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D29">
         <v>595</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -4596,21 +4595,21 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="B30">
         <v>599</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="D30">
         <v>602</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
@@ -4619,21 +4618,21 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B31">
         <v>606</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D31">
         <v>609</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -4642,21 +4641,21 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
       <c r="B32">
         <v>613</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
       <c r="D32">
         <v>616</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
@@ -4665,21 +4664,21 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B33">
         <v>620</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D33">
         <v>623</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4688,21 +4687,21 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
       <c r="B34">
         <v>626</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
       <c r="D34">
         <v>630</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
@@ -4711,21 +4710,21 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B35">
         <v>633</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D35">
         <v>636</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -4734,21 +4733,21 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
       <c r="B36">
         <v>640</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
       <c r="D36">
         <v>643</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
@@ -4757,21 +4756,21 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B37">
         <v>647</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D37">
         <v>650</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -4780,21 +4779,21 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="B38">
         <v>653</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="D38">
         <v>657</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
@@ -4803,21 +4802,21 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B39">
         <v>660</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D39">
         <v>663</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -4826,21 +4825,21 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
       <c r="B40">
         <v>666</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
       <c r="D40">
         <v>670</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
@@ -4849,21 +4848,21 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B41">
         <v>673</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D41">
         <v>676</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -4872,21 +4871,21 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
       <c r="B42">
         <v>679</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
       <c r="D42">
         <v>683</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
@@ -4895,21 +4894,21 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B43">
         <v>685</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D43">
         <v>689</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -4928,7 +4927,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,7 +4977,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
       <c r="B3">
@@ -4987,7 +4986,7 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3">
@@ -4996,7 +4995,7 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f t="shared" ref="G3:G23" si="0">D3</f>
         <v>0</v>
       </c>
@@ -5022,7 +5021,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <f t="shared" ref="A4:A23" si="1">A3+0.5</f>
         <v>0.5</v>
       </c>
@@ -5033,7 +5032,7 @@
         <f>B4-B3</f>
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <f t="shared" ref="D4:D23" si="2">D3+0.5</f>
         <v>0.5</v>
       </c>
@@ -5044,7 +5043,7 @@
         <f>E4-E3</f>
         <v>3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -5071,7 +5070,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5082,7 +5081,7 @@
         <f t="shared" ref="C5:C23" si="3">B5-B4</f>
         <v>5</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5093,7 +5092,7 @@
         <f t="shared" ref="F5:F23" si="4">E5-E4</f>
         <v>5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5113,7 +5112,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
@@ -5124,7 +5123,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
@@ -5135,7 +5134,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -5155,7 +5154,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5166,7 +5165,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -5177,7 +5176,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5204,7 +5203,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
@@ -5215,7 +5214,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
@@ -5226,7 +5225,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -5253,7 +5252,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5264,7 +5263,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -5275,7 +5274,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5299,7 +5298,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
@@ -5310,7 +5309,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
@@ -5321,7 +5320,7 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
@@ -5342,7 +5341,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5353,7 +5352,7 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -5364,7 +5363,7 @@
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5391,7 +5390,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5402,7 +5401,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -5413,7 +5412,7 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -5440,7 +5439,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5451,7 +5450,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -5462,7 +5461,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5482,7 +5481,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
@@ -5493,7 +5492,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
@@ -5504,7 +5503,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
@@ -5517,7 +5516,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5528,7 +5527,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -5539,7 +5538,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5559,7 +5558,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
@@ -5570,7 +5569,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
@@ -5581,7 +5580,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
@@ -5601,7 +5600,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -5612,7 +5611,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -5623,7 +5622,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5643,7 +5642,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
@@ -5654,7 +5653,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
@@ -5665,7 +5664,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -5678,7 +5677,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -5689,7 +5688,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -5700,7 +5699,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5714,10 +5713,10 @@
       <c r="M19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="13"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="6" t="s">
         <v>22</v>
       </c>
@@ -5729,7 +5728,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
@@ -5740,7 +5739,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
@@ -5751,7 +5750,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
@@ -5766,26 +5765,26 @@
         <f>AVERAGE(N15:N17)</f>
         <v>25.9256639594246</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <f>_xlfn.STDEV.S(N15:N17)</f>
         <v>6.3670836642459094E-2</v>
       </c>
-      <c r="O20" s="14"/>
+      <c r="O20" s="13"/>
       <c r="P20">
         <f>COUNT(N15:N17)</f>
         <v>3</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="4">
         <f>2.92/SQRT(3)*N20</f>
         <v>0.10734029405115314</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <f>(M20-250)/N20*SQRT(P20)</f>
         <v>-6095.5400487972765</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -5796,7 +5795,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -5807,7 +5806,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -5820,7 +5819,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
@@ -5831,7 +5830,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
@@ -5842,7 +5841,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -5855,7 +5854,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5866,7 +5865,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -5877,7 +5876,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>

--- a/V1.2/data/Messwerte V1.2.xlsx
+++ b/V1.2/data/Messwerte V1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\Analytik_Protokolle\V1.2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF893247-73B9-4E58-B9B0-A3135271ABDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC4A724-D022-4C83-BA71-5B0D826C8484}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3704,7 +3704,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4141,8 +4141,8 @@
         <v>3</v>
       </c>
       <c r="M12" s="4">
-        <f>K12*2.92/SQRT(3)</f>
-        <v>8.9942737925615204E-2</v>
+        <f>K12*4.303/SQRT(3)</f>
+        <v>0.13254232921024733</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5775,8 +5775,8 @@
         <v>3</v>
       </c>
       <c r="Q20" s="4">
-        <f>2.92/SQRT(3)*N20</f>
-        <v>0.10734029405115314</v>
+        <f>4.303/SQRT(3)*N20</f>
+        <v>0.15817989222675069</v>
       </c>
       <c r="R20" s="7">
         <f>(M20-250)/N20*SQRT(P20)</f>
